--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>给项目添加rem布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +35,46 @@
   </si>
   <si>
     <t>请求代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Media Queries和scss实现rem布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义项目的aliases</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,11 +126,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,6 +209,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -206,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,96 +420,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>43517</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>43518</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>43519</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>43520</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>43521</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>43522</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>43523</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>43524</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>43525</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>43526</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>43527</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>43528</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>43529</v>
       </c>
     </row>
@@ -482,12 +550,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -496,12 +564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>给项目添加rem布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,43 +26,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http拦截器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Media Queries和scss实现rem布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心页面开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心页面实现上传拍摄的头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前版本号信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架不存在这样的API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">引入使用environments </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http拦截器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过Media Queries和scss实现rem布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,7 +452,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -432,25 +460,25 @@
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -461,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -477,13 +505,22 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43519</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -491,7 +528,7 @@
         <v>43520</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -499,7 +536,7 @@
         <v>43521</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -511,20 +548,32 @@
       <c r="A8" s="1">
         <v>43523</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>43524</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>43525</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>43526</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">

--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>给项目添加rem布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http拦截器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,27 +66,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架不存在这样的API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义项目的aliases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">引入使用environments </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加于environments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加请求公共地址参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http拦截器并且请求地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取了数据智汇的API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>获取当前版本号信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架不存在这样的API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">引入使用environments </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义项目的aliases</t>
+    <t>新建三个组件，并且使用懒加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +468,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -466,19 +482,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -489,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -506,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -520,7 +536,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -528,7 +544,13 @@
         <v>43520</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -536,20 +558,29 @@
         <v>43521</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>43522</v>
       </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>43523</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -557,7 +588,7 @@
         <v>43524</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -565,7 +596,7 @@
         <v>43525</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -573,7 +604,7 @@
         <v>43526</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">

--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>给项目添加rem布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>获取当前版本号信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布安卓说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ionicacademy.com/ionic-routing-navigation/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +141,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -152,21 +173,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +496,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -572,7 +600,13 @@
         <v>43522</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -611,6 +645,9 @@
       <c r="A12" s="1">
         <v>43527</v>
       </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -624,8 +661,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>给项目添加rem布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,14 +123,22 @@
   </si>
   <si>
     <t>新建三个组件，并且使用懒加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常返回的统一处理（添加404.500等页面）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,7 +215,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -281,7 +289,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -316,7 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,14 +498,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
@@ -508,7 +514,7 @@
     <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -525,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>43517</v>
       </c>
@@ -542,7 +548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>43518</v>
       </c>
@@ -556,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>43519</v>
       </c>
@@ -567,7 +573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>43520</v>
       </c>
@@ -581,7 +587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>43521</v>
       </c>
@@ -595,7 +601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>43522</v>
       </c>
@@ -609,55 +615,69 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>43523</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>43524</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>43525</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>43526</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>43527</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>43528</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>43529</v>
       </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -670,12 +690,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -684,12 +704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>给项目添加rem布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>异常返回的统一处理（添加404.500等页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建自定义单选表单元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用响应式表单（修改密码）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -670,14 +678,30 @@
         <v>43529</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>给项目添加rem布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,23 +130,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>异常返回的统一处理（添加404.500等页面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建自定义单选表单元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用响应式表单（修改密码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常返回的统一处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在拦截器中统一添加http异常状态提醒，至于内部的协商的状态需自己定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +180,23 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -197,14 +226,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -223,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,6 +332,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -331,6 +367,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,14 +543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
@@ -522,7 +559,7 @@
     <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -539,7 +576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43517</v>
       </c>
@@ -556,7 +593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>43518</v>
       </c>
@@ -570,18 +607,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>43519</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>43520</v>
       </c>
@@ -595,53 +632,61 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>43521</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>43522</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>43523</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>43524</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>43525</v>
       </c>
@@ -649,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>43526</v>
       </c>
@@ -657,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>43527</v>
       </c>
@@ -665,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>43528</v>
       </c>
@@ -673,23 +718,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>43529</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>43530</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>43531</v>
       </c>
@@ -697,10 +742,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -714,12 +759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -728,12 +773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -138,19 +138,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>在拦截器中统一添加http异常状态提醒，至于内部的协商的状态需自己定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>异常返回的统一处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在拦截器中统一添加http异常状态提醒，至于内部的协商的状态需自己定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +547,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,13 +665,13 @@
         <v>43523</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -682,7 +682,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
     </row>

--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>给项目添加rem布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心页面开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,6 +156,14 @@
   <si>
     <t xml:space="preserve">定义数据字典，数据字典过滤filterData，引入lodash
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心页面开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +563,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,16 +577,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -602,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -613,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -624,10 +628,10 @@
         <v>43519</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -635,13 +639,13 @@
         <v>43520</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -649,13 +653,13 @@
         <v>43521</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -663,13 +667,13 @@
         <v>43522</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -677,13 +681,13 @@
         <v>43523</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -691,25 +695,25 @@
         <v>43524</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>43525</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -717,7 +721,10 @@
         <v>43526</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -725,7 +732,7 @@
         <v>43527</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -733,7 +740,7 @@
         <v>43528</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -741,7 +748,7 @@
         <v>43529</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -749,7 +756,7 @@
         <v>43530</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -757,7 +764,7 @@
         <v>43531</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
